--- a/data/trans_camb/P25_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_6-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,28</t>
+          <t>-0,63; 4,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 6,33</t>
+          <t>-0,11; 5,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,77</t>
+          <t>-0,24; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,39</t>
+          <t>-6,53; 0,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,58</t>
+          <t>-2,27; 2,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,88</t>
+          <t>-2,0; 1,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,72</t>
+          <t>-0,68; 4,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,89</t>
+          <t>-0,19; 5,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,87</t>
+          <t>-4,99; 1,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 2,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 2,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 4,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 4,73</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 0,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 1,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>293,65%</t>
+          <t>233,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>355,95%</t>
+          <t>296,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>368,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>-68,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>341,45%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>212,83%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>162,37%</t>
+          <t>263,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>349,15%</t>
+          <t>342,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>131,91%</t>
+          <t>-51,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-19,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>128,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>279,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>355,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-60,27%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-9,53%</t>
         </is>
       </c>
     </row>
@@ -821,15 +959,45 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,97; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,4; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-79,0; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,32; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-59,76; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-99,35; 163,32</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,43</t>
+          <t>-1,33; 2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,78</t>
+          <t>-1,58; 2,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,58</t>
+          <t>-0,6; 3,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>-3,0; 2,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>-1,98; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,97</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,36</t>
+          <t>0,51; 4,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,29</t>
+          <t>-2,21; 4,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 4,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 2,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 3,47</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 2,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 2,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>206,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-18,19%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>263,2%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>131,3%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>240,2%</t>
+          <t>38,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>119,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>233,42%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>124,01%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>460,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>96,78%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-72,58; 303,14</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-70,67; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,23</t>
+          <t>-2,79; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,02</t>
+          <t>-3,05; 0,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,46</t>
+          <t>-2,49; 1,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,84</t>
+          <t>-0,27; 11,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,55</t>
+          <t>-2,43; 10,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,71</t>
+          <t>0,05; 2,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,56</t>
+          <t>-0,64; 1,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,94</t>
+          <t>1,35; 5,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,38</t>
+          <t>-4,35; 1,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 2,18</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 1,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 0,85</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 2,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 6,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 5,49</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>-36,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,88%</t>
+          <t>-42,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>441,29%</t>
+          <t>239,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>168,99%</t>
+          <t>120,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>726,56%</t>
+          <t>396,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>144,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>992,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-48,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-25,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>-11,58%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>136,24%</t>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>157,03%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>40,99%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>50,54%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 397,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 326,84</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-52,33; 1834,22</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 1470,01</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-61,38; 440,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-80,3; 287,94</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 1135,61</t>
+          <t>-100,0; 96,87</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 264,56</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-61,94; 484,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-83,32; 266,77</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 883,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-52,91; 316,72</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-69,67; 377,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,11</t>
+          <t>-3,94; 3,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,14</t>
+          <t>-2,11; 5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,47</t>
+          <t>-3,18; 3,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,92</t>
+          <t>-4,22; 2,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,83</t>
+          <t>-4,2; 3,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,62</t>
+          <t>-1,66; 2,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,21</t>
+          <t>-0,81; 3,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,8</t>
+          <t>-0,62; 4,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,97</t>
+          <t>-3,23; 3,41</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 3,55</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 2,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 3,88</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 3,17</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 1,93</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 2,28</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-12,94%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 122,12</t>
+          <t>-56,96; 123,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 240,42</t>
+          <t>-39,1; 205,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 152,22</t>
+          <t>-53,77; 139,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,54; 294,42</t>
+          <t>-67,48; 97,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 424,29</t>
+          <t>-68,34; 223,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 497,45</t>
+          <t>-61,77; 315,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 109,42</t>
+          <t>-37,67; 518,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 168,24</t>
+          <t>-37,19; 533,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 140,37</t>
+          <t>-68,28; 183,21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-65,3; 181,66</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-43,11; 119,11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-22,88; 187,48</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-32,45; 150,81</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-54,64; 61,34</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-55,18; 94,77</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-6,59</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 0,53</t>
+          <t>-12,64; 0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 2,47</t>
+          <t>-11,97; 2,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 3,09</t>
+          <t>-10,28; 3,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,66</t>
+          <t>-7,3; 5,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,31</t>
+          <t>-6,1; 5,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,93</t>
+          <t>-5,88; 3,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 0,22</t>
+          <t>-3,99; 5,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 2,29</t>
+          <t>-0,51; 11,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 2,76</t>
+          <t>-12,34; -1,18</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 1,8</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 0,29</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 2,17</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 5,31</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 0,41</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 2,18</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-42,75%</t>
+          <t>-41,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>-31,27%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-24,02%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66,21%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-57,16%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-38,98%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
           <t>-32,72%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-28,86%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-19,16%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>8,67%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>18,21%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-34,39%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-18,27%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-12,59%</t>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-17,22%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-35,32%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-19,88%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 7,53</t>
+          <t>-68,67; 14,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,49; 32,49</t>
+          <t>-65,46; 25,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 37,21</t>
+          <t>-61,32; 45,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 75,91</t>
+          <t>-56,23; 70,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 125,0</t>
+          <t>-50,5; 98,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 154,86</t>
+          <t>-61,87; 73,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-59,57; 3,74</t>
+          <t>-42,75; 125,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-51,73; 30,41</t>
+          <t>-14,24; 226,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 36,19</t>
+          <t>-80,34; -4,18</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-70,73; 34,87</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-59,85; 5,1</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-53,7; 30,39</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-37,63; 72,83</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-62,03; 9,14</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-53,32; 34,12</t>
         </is>
       </c>
     </row>
@@ -1712,27 +2360,27 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1742,17 +2390,47 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 6,89</t>
+          <t>-11,71; 6,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 10,02</t>
+          <t>-8,47; 9,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 6,85</t>
+          <t>-9,42; 10,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 10,88</t>
+          <t>-9,78; 11,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 12,51</t>
+          <t>-6,42; 14,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 12,08</t>
+          <t>-7,74; 8,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 6,65</t>
+          <t>-4,61; 13,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 9,22</t>
+          <t>-9,51; 7,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,06</t>
+          <t>-9,46; 9,35</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 10,81</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 5,33</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 8,76</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 6,73</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 7,02</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 9,69</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-13,28%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 43,65</t>
+          <t>-44,23; 37,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 64,44</t>
+          <t>-34,13; 55,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 42,32</t>
+          <t>-37,92; 66,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 70,73</t>
+          <t>-36,94; 72,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 85,75</t>
+          <t>-29,49; 105,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 75,66</t>
+          <t>-29,88; 48,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 41,26</t>
+          <t>-19,74; 74,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 54,37</t>
+          <t>-37,58; 43,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 35,74</t>
+          <t>-35,74; 57,68</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 80,11</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-25,96; 29,85</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-16,79; 49,44</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; 37,9</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-26,55; 39,9</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-21,15; 60,12</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,89</t>
+          <t>-2,89; 0,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,99</t>
+          <t>-2,28; 1,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,45</t>
+          <t>-1,98; 2,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,49</t>
+          <t>-2,65; 2,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,46</t>
+          <t>-1,15; 3,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,0</t>
+          <t>-1,48; 2,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,09</t>
+          <t>-0,88; 3,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,24</t>
+          <t>-0,16; 4,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,16</t>
+          <t>-3,64; 1,32</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,23</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 1,15</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 2,12</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 3,05</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,96</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 2,1</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>-14,91%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-3,55%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-8,79%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 17,1</t>
+          <t>-37,16; 18,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 39,06</t>
+          <t>-30,42; 33,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 27,53</t>
+          <t>-26,28; 43,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 58,43</t>
+          <t>-33,39; 46,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 78,82</t>
+          <t>-17,1; 81,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 88,07</t>
+          <t>-22,46; 49,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 21,74</t>
+          <t>-13,2; 71,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 43,97</t>
+          <t>-3,01; 86,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 41,95</t>
+          <t>-39,71; 20,29</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-33,73; 40,33</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-23,71; 20,85</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 38,74</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 58,05</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-29,33; 14,19</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 39,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
